--- a/Controle_Financeiro.xlsx
+++ b/Controle_Financeiro.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbnog\Cursos DIO\Bootcamp CAIXA - IA Generativa com Microsoft Copilot\Planilhas-Inteligentes-e-IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E9DCFAE-43B4-4146-8171-6EE61C2079DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177229D5-0A0F-492A-B9C4-CD1DC92E8396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{F740B147-A594-4FF8-86EF-1FA36B697F05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{F740B147-A594-4FF8-86EF-1FA36B697F05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Controller" sheetId="3" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="4" r:id="rId3"/>
+    <sheet name="Data" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Controller" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Caixinha" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Mês">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -41,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="80">
   <si>
     <t>Data</t>
   </si>
@@ -267,15 +279,30 @@
   <si>
     <t>Soma de Valor</t>
   </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Data de Lançamento</t>
+  </si>
+  <si>
+    <t>Depósito Reservado</t>
+  </si>
+  <si>
+    <t>Total Reservado</t>
+  </si>
+  <si>
+    <t>Meta de Reserva</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +317,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +358,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -319,12 +372,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -342,14 +411,90 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFB6F54"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -386,19 +531,321 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFB6F54"/>
+          <bgColor rgb="FFFB6F54"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="my-style" pivot="0" table="0" count="10" xr9:uid="{EF37AE13-8BE6-4DCF-AF10-43598B3CC052}">
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFB6F54"/>
+      <color rgb="FFFCC704"/>
+      <color rgb="FFF0D790"/>
     </mruColors>
   </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="8">
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color theme="5" tint="-0.249977111117893"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="5" tint="0.59999389629810485"/>
+              <bgColor theme="0"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color theme="5" tint="0.59999389629810485"/>
+            </left>
+            <right style="thin">
+              <color theme="5" tint="0.59999389629810485"/>
+            </right>
+            <top style="thin">
+              <color theme="5" tint="0.59999389629810485"/>
+            </top>
+            <bottom style="thin">
+              <color theme="5" tint="0.59999389629810485"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color theme="1"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="5"/>
+              <bgColor rgb="FFFCC704"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color theme="5"/>
+            </left>
+            <right style="thin">
+              <color theme="5"/>
+            </right>
+            <top style="thin">
+              <color theme="5"/>
+            </top>
+            <bottom style="thin">
+              <color theme="5"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFDFDFDF"/>
+              <bgColor theme="0" tint="-0.14996795556505021"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFDFDFDF"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFDFDFDF"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFDFDFDF"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFDFDFDF"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFC0C0C0"/>
+              <bgColor rgb="FFC0C0C0"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFC0C0C0"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFC0C0C0"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFC0C0C0"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFC0C0C0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="my-style">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="4"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -545,7 +992,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FB6F54"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -600,7 +1047,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.6159170801269024E-2"/>
+          <c:y val="4.3388746513633079E-2"/>
+          <c:w val="0.97037485353100683"/>
+          <c:h val="0.75537800523654342"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -621,7 +1078,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FB6F54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -939,7 +1396,895 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Controle_Financeiro.xlsx]Controller!Tabela dinâmica2</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FB6F54"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FB6F54"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1111111111111109E-2"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.84204505686789155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Controller!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FB6F54"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Controller!$F$4:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Freelance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Investimentos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Renda Fixa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Venda de ativos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Controller!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C14-4EF4-BF85-8CC6E9E3BEC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="33718128"/>
+        <c:axId val="33727728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="33718128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33727728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33727728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="33718128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Caixinha!$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B820-4BD2-ACAB-976A478B44D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2040794992"/>
+        <c:axId val="2040789232"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="46000">
+                  <a:srgbClr val="FB6F54"/>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="bg1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Caixinha!$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B820-4BD2-ACAB-976A478B44D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="54701184"/>
+        <c:axId val="54700704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2040794992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2040789232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2040789232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2040794992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54700704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54701184"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="54701184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54700704"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1482,27 +2827,2513 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>162490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>17348</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="Agrupar 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E114A24-61CE-30DD-D8ED-334E8DB63C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1666876" y="5686990"/>
+          <a:ext cx="11731624" cy="3474358"/>
+          <a:chOff x="1640960" y="4617523"/>
+          <a:chExt cx="9577527" cy="3577479"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="Agrupar 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4314DFCA-A37F-6F98-B3CB-5F8AF900BADB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1640960" y="4617523"/>
+            <a:ext cx="9577527" cy="3577479"/>
+            <a:chOff x="1631155" y="5060155"/>
+            <a:chExt cx="9465469" cy="3476626"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="9" name="Agrupar 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3E8457-9C96-3422-6BAC-8B63CEA748FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1631155" y="5060155"/>
+              <a:ext cx="9465469" cy="3476626"/>
+              <a:chOff x="1619249" y="6322218"/>
+              <a:chExt cx="9465469" cy="3476626"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883C1BDB-55BC-4B69-86A1-193BA7E264A2}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1619249" y="6322218"/>
+                <a:ext cx="9465469" cy="3476626"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="2" name="Gráfico 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172E3BFD-22B3-4D16-A885-B172446AC1B3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr>
+                <a:graphicFrameLocks/>
+              </xdr:cNvGraphicFramePr>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="1643063" y="7250906"/>
+              <a:ext cx="9405937" cy="2343150"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="Retângulo: Cantos Superiores Arredondados 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80359773-AACD-4A7B-BD69-BCB5CF2641DB}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1619251" y="6334125"/>
+                <a:ext cx="9453562" cy="607218"/>
+              </a:xfrm>
+              <a:prstGeom prst="round2SameRect">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val 50000"/>
+                  <a:gd name="adj2" fmla="val 0"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FB6F54"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="CaixaDeTexto 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A748A4CA-4E5E-4CAF-A319-E8BB80AE0CF2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2515062" y="5143501"/>
+              <a:ext cx="7974344" cy="416719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="2000" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Gastos</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Gráfico 14" descr="Dinheiro voador estrutura de tópicos">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621CE4B5-35E2-F99B-78A4-30856392D6EA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1902198" y="4693162"/>
+            <a:ext cx="530879" cy="540683"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412754</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164191</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Agrupar 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0C5865-C0FC-AE34-4411-DAF562539524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1666876" y="1531142"/>
+          <a:ext cx="5705478" cy="3967049"/>
+          <a:chOff x="1640960" y="178593"/>
+          <a:chExt cx="5754223" cy="4082443"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="Agrupar 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DEB3D2-EA21-880F-FA35-66186B3EED64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1640960" y="178593"/>
+            <a:ext cx="5754223" cy="4082443"/>
+            <a:chOff x="1631154" y="595313"/>
+            <a:chExt cx="5691190" cy="3964781"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="7" name="Agrupar 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA20E29-8EF6-0B46-305F-3F0C929B482C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1631154" y="595313"/>
+              <a:ext cx="5691190" cy="3964781"/>
+              <a:chOff x="1631154" y="595313"/>
+              <a:chExt cx="5691190" cy="3964781"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Retângulo: Cantos Arredondados 3">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31385557-31D0-7221-9BF9-84E6D2C0CF9B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1631154" y="607217"/>
+                <a:ext cx="5691190" cy="3952877"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="6" name="Retângulo: Cantos Superiores Arredondados 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9A2B0B-78AE-4062-D704-9EE0A928E5F2}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1643062" y="595313"/>
+                <a:ext cx="5679281" cy="607218"/>
+              </a:xfrm>
+              <a:prstGeom prst="round2SameRect">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val 50000"/>
+                  <a:gd name="adj2" fmla="val 0"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FB6F54"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AA3738-D4D9-4443-B4EA-F242FCF745F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="1988342" y="1309686"/>
+            <a:ext cx="4572000" cy="2743200"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D829A733-00D5-8102-9E69-8A3CF9BB1291}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2547936" y="678657"/>
+              <a:ext cx="4345782" cy="416719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="2000" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Entrada</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="Gráfico 16" descr="Registrar estrutura de tópicos">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5207C86-66BA-EEEB-0D5E-8365CE524CA1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1945742" y="219916"/>
+            <a:ext cx="535660" cy="539862"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>49439</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="20" name="Mês">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6C8F05-48CE-4C38-8562-B402F1FD08C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Mês"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1811564"/>
+              <a:ext cx="1571625" cy="1285875"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>422276</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19958</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Agrupar 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B48E4C-FB4F-A1B0-3F36-0684DDEBFE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1666876" y="99332"/>
+          <a:ext cx="11684000" cy="1254126"/>
+          <a:chOff x="1655537" y="124732"/>
+          <a:chExt cx="11894909" cy="1270001"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Retângulo: Cantos Arredondados 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7E7693-76B2-4917-B57F-175C33F8D588}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1689552" y="124732"/>
+            <a:ext cx="11860894" cy="1270001"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 24768"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Retângulo: Cantos Arredondados 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449636FC-2268-4BEF-BB65-240647B1611D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1836964" y="328839"/>
+            <a:ext cx="1247321" cy="975179"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FB6F54"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="CaixaDeTexto 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6437BBFC-CF3D-8E38-8200-7998C4C3393D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3084286" y="272144"/>
+            <a:ext cx="4308928" cy="532946"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1">
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Hello,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1" baseline="0">
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Wagner!</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="2000" b="1">
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="CaixaDeTexto 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74D6028-1851-8628-F593-B4493B371C00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3084286" y="714376"/>
+            <a:ext cx="4308928" cy="532946"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1200" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Acompanhamento Financeiro</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="30" name="Agrupar 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8E48D3-AC62-51AB-4BA9-82A99498E2E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6962323" y="476250"/>
+            <a:ext cx="4479016" cy="430894"/>
+            <a:chOff x="7835447" y="532946"/>
+            <a:chExt cx="4819197" cy="430894"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Retângulo: Cantos Arredondados 26">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40E28C5-F19E-4EB4-8934-0D35D444BB32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7835447" y="532946"/>
+              <a:ext cx="4819197" cy="419554"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pesquisar</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> dados...</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1100" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Gráfico 28" descr="Lupa com preenchimento sólido">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F711FEA8-53BB-9BB1-4297-B9A22584A506}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12087678" y="555625"/>
+              <a:ext cx="408215" cy="408215"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="Imagem 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32151B0-676E-5C15-F638-5F734FF73DE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:srcRect l="15450" t="3776" r="30472" b="50730"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1655537" y="147411"/>
+            <a:ext cx="1360714" cy="1167947"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1564821</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>56695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Retângulo: Cantos Arredondados 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548A3B60-A14C-9E9D-2BED-9FDE27CCE555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="158749"/>
+          <a:ext cx="1564821" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2381"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Money APP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1077231</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1462767</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Gráfico 41" descr="Dinheiro com preenchimento sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD636AB5-363D-A7E4-341D-B41792C22E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1077231" y="181428"/>
+          <a:ext cx="385536" cy="385536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>184942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438154</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>151491</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Agrupar 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD1B786-AB66-FFBC-4024-7BEB5DC0144E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7661276" y="1518442"/>
+          <a:ext cx="5705478" cy="3967049"/>
+          <a:chOff x="1640960" y="178593"/>
+          <a:chExt cx="5754223" cy="4082443"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="44" name="Agrupar 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{153A7E60-D6A5-AE75-9DF9-B7013AA584C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1640960" y="178593"/>
+            <a:ext cx="5754223" cy="4082443"/>
+            <a:chOff x="1631154" y="595313"/>
+            <a:chExt cx="5691190" cy="3964781"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="46" name="Agrupar 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189818F1-5D43-F770-BBB1-A71F65723784}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1631154" y="595313"/>
+              <a:ext cx="5691190" cy="3964781"/>
+              <a:chOff x="1631154" y="595313"/>
+              <a:chExt cx="5691190" cy="3964781"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="49" name="Retângulo: Cantos Arredondados 48">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F120E27-E6BF-1B7D-34DF-9C41E2E57F90}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1631154" y="607217"/>
+                <a:ext cx="5691190" cy="3952877"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="50" name="Retângulo: Cantos Superiores Arredondados 49">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F4F043-3A60-AFD1-3058-B10F6629E4A9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1643062" y="595313"/>
+                <a:ext cx="5679281" cy="607218"/>
+              </a:xfrm>
+              <a:prstGeom prst="round2SameRect">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val 50000"/>
+                  <a:gd name="adj2" fmla="val 0"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FB6F54"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="CaixaDeTexto 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3334B96-6815-2AEF-BB40-31F77022974D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2547936" y="678657"/>
+              <a:ext cx="4345782" cy="416719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="2000" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Economias</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="45" name="Gráfico 44" descr="Cofrinho estrutura de tópicos">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A63D60-23D5-1F11-A1A5-9970581BC453}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1949030" y="219916"/>
+            <a:ext cx="529084" cy="539862"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64292</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="52" name="Gráfico 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172E3BFD-22B3-4D16-A885-B172446AC1B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C944E6E-C3D9-4B63-A6A7-503949ED2D57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +5347,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1526,13 +5357,20 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wagner Nogueira" refreshedDate="45669.655054050927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="44" xr:uid="{452EAD74-88AE-4466-A378-ECEC5269E502}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wagner Nogueira" refreshedDate="45671.51532071759" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="44" xr:uid="{452EAD74-88AE-4466-A378-ECEC5269E502}">
   <cacheSource type="worksheet">
     <worksheetSource name="tbl_operations"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="8">
     <cacheField name="Data" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-08-01T00:00:00" maxDate="2024-11-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="Mês" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="10" count="3">
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Tipo" numFmtId="0">
       <sharedItems count="2">
@@ -1578,7 +5416,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1720268134"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1590,6 +5428,7 @@
     <d v="2024-08-01T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Salário mensal"/>
     <n v="5000"/>
     <s v="Transferência"/>
@@ -1597,6 +5436,7 @@
   </r>
   <r>
     <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="Compras no supermercado"/>
@@ -1606,6 +5446,7 @@
   </r>
   <r>
     <d v="2024-08-03T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <s v="Gasolina"/>
@@ -1615,6 +5456,7 @@
   </r>
   <r>
     <d v="2024-08-05T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <s v="Cinema"/>
@@ -1624,6 +5466,7 @@
   </r>
   <r>
     <d v="2024-08-07T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="4"/>
     <s v="Consulta odontológica"/>
@@ -1633,6 +5476,7 @@
   </r>
   <r>
     <d v="2024-08-10T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="5"/>
     <s v="Material escolar"/>
@@ -1642,6 +5486,7 @@
   </r>
   <r>
     <d v="2024-08-12T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="6"/>
     <s v="Compra de roupas de inverno"/>
@@ -1652,6 +5497,7 @@
   <r>
     <d v="2024-08-15T00:00:00"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="7"/>
     <s v="Dividendos de ações"/>
     <n v="800"/>
@@ -1660,6 +5506,7 @@
   </r>
   <r>
     <d v="2024-08-15T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="8"/>
     <s v="Limpeza do apartamento"/>
@@ -1669,6 +5516,7 @@
   </r>
   <r>
     <d v="2024-08-18T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="9"/>
     <s v="Compra de novo celular"/>
@@ -1678,6 +5526,7 @@
   </r>
   <r>
     <d v="2024-08-20T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="10"/>
     <s v="Reparos domésticos"/>
@@ -1687,6 +5536,7 @@
   </r>
   <r>
     <d v="2024-08-22T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="11"/>
     <s v="Presente de aniversário"/>
@@ -1696,6 +5546,7 @@
   </r>
   <r>
     <d v="2024-08-24T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Corte de cabelo e barba"/>
@@ -1705,6 +5556,7 @@
   </r>
   <r>
     <d v="2024-08-28T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="13"/>
     <s v="Ração e petiscos para o cachorro"/>
@@ -1714,6 +5566,7 @@
   </r>
   <r>
     <d v="2024-08-30T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="14"/>
     <s v="Reserva de pousada"/>
@@ -1723,6 +5576,7 @@
   </r>
   <r>
     <d v="2024-08-31T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="15"/>
     <s v="Jantar em restaurante francês"/>
@@ -1732,6 +5586,7 @@
   </r>
   <r>
     <d v="2024-09-01T00:00:00"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Salário mensal"/>
@@ -1743,6 +5598,7 @@
     <d v="2024-09-02T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="1"/>
     <s v="Compras no supermercado"/>
     <n v="450"/>
     <s v="Débito Automático"/>
@@ -1750,6 +5606,7 @@
   </r>
   <r>
     <d v="2024-09-05T00:00:00"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="2"/>
     <s v="Gasolina"/>
@@ -1760,6 +5617,7 @@
   <r>
     <d v="2024-09-08T00:00:00"/>
     <x v="1"/>
+    <x v="1"/>
     <x v="3"/>
     <s v="Cinema e jantar"/>
     <n v="200"/>
@@ -1768,6 +5626,7 @@
   </r>
   <r>
     <d v="2024-09-11T00:00:00"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <s v="Plano de saúde"/>
@@ -1778,6 +5637,7 @@
   <r>
     <d v="2024-09-14T00:00:00"/>
     <x v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <s v="Material escolar"/>
     <n v="350"/>
@@ -1787,6 +5647,7 @@
   <r>
     <d v="2024-09-17T00:00:00"/>
     <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <s v="Compra de roupas"/>
     <n v="500"/>
@@ -1795,6 +5656,7 @@
   </r>
   <r>
     <d v="2024-09-20T00:00:00"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="16"/>
     <s v="Pagamento por projeto freelancer"/>
@@ -1805,6 +5667,7 @@
   <r>
     <d v="2024-09-20T00:00:00"/>
     <x v="1"/>
+    <x v="1"/>
     <x v="8"/>
     <s v="Manutenção do veículo"/>
     <n v="800"/>
@@ -1813,6 +5676,7 @@
   </r>
   <r>
     <d v="2024-09-23T00:00:00"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="9"/>
     <s v="Compra de novo smartphone"/>
@@ -1823,6 +5687,7 @@
   <r>
     <d v="2024-09-26T00:00:00"/>
     <x v="1"/>
+    <x v="1"/>
     <x v="17"/>
     <s v="Conta de energia elétrica"/>
     <n v="250"/>
@@ -1832,6 +5697,7 @@
   <r>
     <d v="2024-09-29T00:00:00"/>
     <x v="1"/>
+    <x v="1"/>
     <x v="11"/>
     <s v="Aniversário da mãe"/>
     <n v="400"/>
@@ -1840,6 +5706,7 @@
   </r>
   <r>
     <d v="2024-10-01T00:00:00"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Salário mensal"/>
@@ -1849,6 +5716,7 @@
   </r>
   <r>
     <d v="2024-10-01T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <s v="Compras no supermercado"/>
@@ -1858,6 +5726,7 @@
   </r>
   <r>
     <d v="2024-10-03T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="2"/>
     <s v="Recarga de cartão de transporte"/>
@@ -1867,6 +5736,7 @@
   </r>
   <r>
     <d v="2024-10-05T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="3"/>
     <s v="Ingressos para teatro"/>
@@ -1876,6 +5746,7 @@
   </r>
   <r>
     <d v="2024-10-08T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="4"/>
     <s v="Remédios de farmácia"/>
@@ -1885,6 +5756,7 @@
   </r>
   <r>
     <d v="2024-10-10T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="5"/>
     <s v="Cursos online"/>
@@ -1894,6 +5766,7 @@
   </r>
   <r>
     <d v="2024-10-13T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="6"/>
     <s v="Roupas de primavera"/>
@@ -1903,6 +5776,7 @@
   </r>
   <r>
     <d v="2024-10-15T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="8"/>
     <s v="Manutenção da casa"/>
@@ -1912,6 +5786,7 @@
   </r>
   <r>
     <d v="2024-10-18T00:00:00"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="18"/>
     <s v="Venda de equipamentos eletrônicos"/>
@@ -1921,6 +5796,7 @@
   </r>
   <r>
     <d v="2024-10-18T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="9"/>
     <s v="Manutenção do computador"/>
@@ -1930,6 +5806,7 @@
   </r>
   <r>
     <d v="2024-10-20T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="10"/>
     <s v="Troca de móveis da cozinha"/>
@@ -1939,6 +5816,7 @@
   </r>
   <r>
     <d v="2024-10-22T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="11"/>
     <s v="Presentes para casamento"/>
@@ -1948,6 +5826,7 @@
   </r>
   <r>
     <d v="2024-10-24T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="13"/>
     <s v="Veterinário para o pet"/>
@@ -1957,6 +5836,7 @@
   </r>
   <r>
     <d v="2024-10-26T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Salão de beleza"/>
@@ -1966,6 +5846,7 @@
   </r>
   <r>
     <d v="2024-10-30T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="15"/>
     <s v="Jantar em restaurante italiano"/>
@@ -1975,6 +5856,7 @@
   </r>
   <r>
     <d v="2024-10-31T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="14"/>
     <s v="Reserva de hotel para fim de semana"/>
@@ -1986,10 +5868,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D6436BB-AAEB-4FFC-9802-BE83D3A9EB40}" name="Tabela dinâmica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="C3:D19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{479A661B-DEA5-4522-9594-A487D5CAFA93}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="F3:G8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -2027,7 +5917,129 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="5" baseField="2" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D6436BB-AAEB-4FFC-9802-BE83D3A9EB40}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="C3:D19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="1"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
   </rowFields>
   <rowItems count="16">
     <i>
@@ -2083,10 +6095,10 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="2" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Soma de Valor" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Soma de Valor" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
@@ -2129,19 +6141,57 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Mês" xr10:uid="{7BFA369E-A94F-4E50-A6C9-3ED5E2442F75}" sourceName="Mês">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1720268134">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Mês" xr10:uid="{5BBB3DAA-386B-4C35-9F34-F0CE0B376EBC}" cache="SegmentaçãodeDados_Mês" caption="Mês" style="my-style" rowHeight="257175"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25AADDE6-5D3E-49E2-85BB-6C3CB29021D0}" name="tbl_operations" displayName="tbl_operations" ref="A1:G45" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:G45" xr:uid="{25AADDE6-5D3E-49E2-85BB-6C3CB29021D0}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{03D2E5A1-3B90-4EED-AB92-EBF76A682C4C}" name="Data" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8710A1C5-7914-4D22-B9D7-4445FCE68BFC}" name="Tipo" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{983781B2-4C0D-4F8D-8448-6941DA12B97F}" name="Categoria" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{FB90647B-F621-4933-8A12-EEC8850F62A9}" name="Descrição" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{F7DD12A0-855C-45F5-AA5D-C0AFE88FF631}" name="Valor" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{80EAA33B-1BD8-4379-90AA-9F2E7E85D615}" name="Operação Bancária" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{417F930C-45C7-45BC-BBE6-3D0B0DFB2453}" name="Status" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25AADDE6-5D3E-49E2-85BB-6C3CB29021D0}" name="tbl_operations" displayName="tbl_operations" ref="A1:H45" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:H45" xr:uid="{25AADDE6-5D3E-49E2-85BB-6C3CB29021D0}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{03D2E5A1-3B90-4EED-AB92-EBF76A682C4C}" name="Data" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{39DAFE90-9FAD-43CD-AC69-65AE8DE80783}" name="Mês" dataDxfId="10">
+      <calculatedColumnFormula>MONTH(tbl_operations[[#This Row],[Data]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{8710A1C5-7914-4D22-B9D7-4445FCE68BFC}" name="Tipo" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{983781B2-4C0D-4F8D-8448-6941DA12B97F}" name="Categoria" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{FB90647B-F621-4933-8A12-EEC8850F62A9}" name="Descrição" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{F7DD12A0-855C-45F5-AA5D-C0AFE88FF631}" name="Valor" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{80EAA33B-1BD8-4379-90AA-9F2E7E85D615}" name="Operação Bancária" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{417F930C-45C7-45BC-BBE6-3D0B0DFB2453}" name="Status" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50245591-9EA5-42FA-B659-CB80F239FDFC}" name="Tabela2" displayName="Tabela2" ref="C6:D18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="C6:D18" xr:uid="{50245591-9EA5-42FA-B659-CB80F239FDFC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2324127D-AC8C-44A8-A063-248170117D05}" name="Data de Lançamento" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E3E8FB10-9352-45B4-8674-F6A1117A7EAA}" name="Depósito Reservado" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2465,1054 +6515,1232 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45505</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>5000</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45505</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>550</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45507</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>300</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45509</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>120</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45511</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>250</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45514</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>400</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45516</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45519</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45519</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>150</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45522</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>1200</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45524</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>450</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45526</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>180</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45528</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>80</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45532</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45534</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>750</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45535</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>350</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45536</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5000</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45537</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>450</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45540</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45543</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45546</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45549</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>350</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45552</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45555</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>1200</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45555</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45558</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45561</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>250</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45564</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>400</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45566</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>5000</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45566</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>600</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45568</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45570</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>180</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45573</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>120</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45575</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>350</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45578</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>400</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45580</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>450</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45583</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>1500</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45583</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>300</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45585</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>800</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45587</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>250</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45589</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>150</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45591</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>250</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45595</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>220</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45596</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="9">
+        <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3530,75 +7758,117 @@
   <sheetPr>
     <tabColor theme="3" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="C1:D19"/>
+  <dimension ref="C1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>74</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6">
         <v>1600</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="6">
         <v>330</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6">
+        <v>800</v>
+      </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="6">
         <v>1100</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="6">
         <v>3000</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="6">
         <v>570</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="6">
+        <v>18500</v>
+      </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
@@ -3606,7 +7876,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
@@ -3614,7 +7884,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
@@ -3622,7 +7892,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
@@ -3630,7 +7900,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
@@ -3638,7 +7908,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3646,7 +7916,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>54</v>
       </c>
@@ -3654,7 +7924,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
@@ -3692,21 +7962,174 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8944435B-625C-42DD-BF58-DD7781DDF474}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.749992370372631"/>
+  </sheetPr>
+  <dimension ref="C1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="6">
+        <f>SUM(Tabela2[Depósito Reservado])</f>
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="13">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>45603</v>
+      </c>
+      <c r="D7" s="11">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="10">
+        <v>45604</v>
+      </c>
+      <c r="D8" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>45605</v>
+      </c>
+      <c r="D9" s="11">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
+        <v>45606</v>
+      </c>
+      <c r="D10" s="11">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
+        <v>45607</v>
+      </c>
+      <c r="D11" s="11">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
+        <v>45608</v>
+      </c>
+      <c r="D12" s="11">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="10">
+        <v>45609</v>
+      </c>
+      <c r="D13" s="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="10">
+        <v>45610</v>
+      </c>
+      <c r="D14" s="11">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="10">
+        <v>45611</v>
+      </c>
+      <c r="D15" s="11">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="10">
+        <v>45612</v>
+      </c>
+      <c r="D16" s="11">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
+        <v>45613</v>
+      </c>
+      <c r="D17" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="10">
+        <v>45614</v>
+      </c>
+      <c r="D18" s="11">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757CF45B-B6AD-44B7-ABBE-066081982061}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
-    <col min="2" max="21" width="9" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="7" customWidth="1"/>
+    <col min="2" max="20" width="9" style="8" customWidth="1"/>
+    <col min="21" max="21" width="57.7109375" style="8" customWidth="1"/>
     <col min="22" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>